--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F1261-3806-409B-BA30-8BD942E72BD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED57D2C4-988B-4931-A952-AA2E79E1CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_GEP Setting" sheetId="1" r:id="rId1"/>
@@ -18,39 +18,66 @@
     <sheet name="Simulation Setting" sheetId="3" r:id="rId3"/>
     <sheet name="Simulation Configuration" sheetId="4" r:id="rId4"/>
     <sheet name="Gen Technology" sheetId="5" r:id="rId5"/>
-    <sheet name="File Path" sheetId="6" r:id="rId6"/>
-    <sheet name="Scenario Reduction Setting" sheetId="7" r:id="rId7"/>
-    <sheet name="ATB Setting" sheetId="8" r:id="rId8"/>
-    <sheet name="Ancillary Tabs-&gt;" sheetId="9" r:id="rId9"/>
-    <sheet name="ATB List" sheetId="10" r:id="rId10"/>
+    <sheet name="Gen Technology (2)" sheetId="11" r:id="rId6"/>
+    <sheet name="File Path" sheetId="6" r:id="rId7"/>
+    <sheet name="Scenario Reduction Setting" sheetId="7" r:id="rId8"/>
+    <sheet name="ATB Setting" sheetId="8" r:id="rId9"/>
+    <sheet name="Ancillary Tabs-&gt;" sheetId="9" r:id="rId10"/>
+    <sheet name="ATB List" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="Battery" localSheetId="5">Table2[Battery]</definedName>
     <definedName name="Battery">Table2[Battery]</definedName>
+    <definedName name="Battery_Tech" localSheetId="5">Table2[Battery]</definedName>
     <definedName name="Battery_Tech">Table2[Battery]</definedName>
+    <definedName name="Biopower" localSheetId="5">Table3[Biopower]</definedName>
     <definedName name="Biopower">Table3[Biopower]</definedName>
+    <definedName name="Biopower_Tech" localSheetId="5">Table3[Biopower]</definedName>
     <definedName name="Biopower_Tech">Table3[Biopower]</definedName>
+    <definedName name="Coal" localSheetId="5">Table4[Coal]</definedName>
     <definedName name="Coal">Table4[Coal]</definedName>
+    <definedName name="Coal_Tech" localSheetId="5">Table4[Coal]</definedName>
     <definedName name="Coal_Tech">Table4[Coal]</definedName>
+    <definedName name="CommPV" localSheetId="5">Table5[CommPV]</definedName>
     <definedName name="CommPV">Table5[CommPV]</definedName>
+    <definedName name="CommPV_Tech" localSheetId="5">Table5[CommPV]</definedName>
     <definedName name="CommPV_Tech">Table5[CommPV]</definedName>
+    <definedName name="CSP" localSheetId="5">Table6[CSP]</definedName>
     <definedName name="CSP">Table6[CSP]</definedName>
+    <definedName name="CSP_Tech" localSheetId="5">Table6[CSP]</definedName>
     <definedName name="CSP_Tech">Table6[CSP]</definedName>
+    <definedName name="Geothermal" localSheetId="5">Table7[Geothermal]</definedName>
     <definedName name="Geothermal">Table7[Geothermal]</definedName>
+    <definedName name="Geothermal_Tech" localSheetId="5">Table7[Geothermal]</definedName>
     <definedName name="Geothermal_Tech">Table7[Geothermal]</definedName>
+    <definedName name="Hydropower" localSheetId="5">Table8[Hydropower]</definedName>
     <definedName name="Hydropower">Table8[Hydropower]</definedName>
+    <definedName name="Hydropower_Tech" localSheetId="5">Table8[Hydropower]</definedName>
     <definedName name="Hydropower_Tech">Table8[Hydropower]</definedName>
+    <definedName name="LandbasedWind" localSheetId="5">Table9[LandbasedWind]</definedName>
     <definedName name="LandbasedWind">Table9[LandbasedWind]</definedName>
+    <definedName name="LandWind_Tech" localSheetId="5">Table9[LandbasedWind]</definedName>
     <definedName name="LandWind_Tech">Table9[LandbasedWind]</definedName>
+    <definedName name="NaturalGas" localSheetId="5">Table10[NaturalGas]</definedName>
     <definedName name="NaturalGas">Table10[NaturalGas]</definedName>
+    <definedName name="Nuclear" localSheetId="5">Table11[Nuclear]</definedName>
     <definedName name="Nuclear">Table11[Nuclear]</definedName>
+    <definedName name="Nuclear_Tech" localSheetId="5">Table11[Nuclear]</definedName>
     <definedName name="Nuclear_Tech">Table11[Nuclear]</definedName>
+    <definedName name="OffShoreWind" localSheetId="5">Table12[OffShoreWind]</definedName>
     <definedName name="OffShoreWind">Table12[OffShoreWind]</definedName>
+    <definedName name="OffShoreWind_Tech" localSheetId="5">Table12[OffShoreWind]</definedName>
     <definedName name="OffShoreWind_Tech">Table12[OffShoreWind]</definedName>
+    <definedName name="ResPV" localSheetId="5">Table13[ResPV]</definedName>
     <definedName name="ResPV">Table13[ResPV]</definedName>
     <definedName name="ResPV_Tech">'ATB List'!$T$2:$T$6</definedName>
+    <definedName name="Tech_Data" localSheetId="5">Table16[]</definedName>
     <definedName name="Tech_Data">Table16[]</definedName>
+    <definedName name="Technology" localSheetId="5">Table1[Tech]</definedName>
     <definedName name="Technology">Table1[Tech]</definedName>
+    <definedName name="UtilityPV" localSheetId="5">Table14[UtilityPV]</definedName>
     <definedName name="UtilityPV">Table14[UtilityPV]</definedName>
+    <definedName name="UtilityPV_Tech" localSheetId="5">Table14[UtilityPV]</definedName>
     <definedName name="UtilityPV_Tech">Table14[UtilityPV]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -69,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="316">
   <si>
     <t>Setting</t>
   </si>
@@ -1091,6 +1118,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1382,7 +1410,107 @@
     <cellStyle name="Normal 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" indent="1"/>
     </dxf>
@@ -1644,66 +1772,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1718,22 +1786,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M15" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M15" totalsRowShown="0" dataDxfId="25" headerRowBorderDxfId="26" headerRowCellStyle="Heading 3">
   <autoFilter ref="A1:M15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="14" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="13" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="12" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="11" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="10" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="9" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="24" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="23" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="22" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="21" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="20" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="19" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1822,10 +1890,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="I1:I6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2227,6 +2295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Z213"/>
   <sheetViews>
@@ -5442,8 +5527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5944,7 +6029,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5957,10 +6042,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6091,6 +6176,775 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="23">
+        <v>100</v>
+      </c>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23">
+        <v>0</v>
+      </c>
+      <c r="S2" s="24">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="T2" s="23">
+        <v>1</v>
+      </c>
+      <c r="U2" s="23">
+        <v>1</v>
+      </c>
+      <c r="V2" s="26">
+        <v>0</v>
+      </c>
+      <c r="W2" s="26">
+        <v>0</v>
+      </c>
+      <c r="X2" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Z2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AD2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL2" s="24"/>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="23">
+        <v>100</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="23">
+        <v>0</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="T3" s="23">
+        <v>1</v>
+      </c>
+      <c r="U3" s="23">
+        <v>1</v>
+      </c>
+      <c r="V3" s="26">
+        <v>0</v>
+      </c>
+      <c r="W3" s="26">
+        <v>0</v>
+      </c>
+      <c r="X3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="Z3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AD3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL3" s="24"/>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4" s="24">
+        <v>10.461</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AD4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL4" s="24"/>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="23">
+        <v>200</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="U5" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="W5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="26">
+        <v>0.35</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="Z5" s="23">
+        <v>53.18</v>
+      </c>
+      <c r="AA5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AD5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL5" s="24"/>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="23">
+        <v>50</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="24">
+        <v>9.5150000000000006</v>
+      </c>
+      <c r="T6" s="23">
+        <v>1</v>
+      </c>
+      <c r="U6" s="23">
+        <v>1</v>
+      </c>
+      <c r="V6" s="26">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0.83</v>
+      </c>
+      <c r="X6" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="Z6" s="23">
+        <v>53.18</v>
+      </c>
+      <c r="AA6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="AD6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL6" s="24"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AJ2">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4:AJ6">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AG6">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D07519-F835-4C19-99E7-06F78FDFB654}">
+  <dimension ref="A1:AL8"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="22" max="22" width="17.1328125" customWidth="1"/>
+    <col min="23" max="24" width="11.59765625" customWidth="1"/>
+    <col min="25" max="25" width="13.59765625" customWidth="1"/>
+    <col min="26" max="28" width="11.59765625" customWidth="1"/>
+    <col min="29" max="29" width="13.265625" customWidth="1"/>
+    <col min="30" max="30" width="20.1328125" customWidth="1"/>
+    <col min="31" max="31" width="15.265625" customWidth="1"/>
+    <col min="32" max="32" width="12.3984375" customWidth="1"/>
+    <col min="33" max="33" width="23.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="29" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -6178,7 +7032,7 @@
         <v>0.3</v>
       </c>
       <c r="AD2" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="23" t="b">
         <v>0</v>
@@ -6292,7 +7146,7 @@
         <v>0.3</v>
       </c>
       <c r="AD3" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="23" t="b">
         <v>1</v>
@@ -6406,7 +7260,7 @@
         <v>0.3</v>
       </c>
       <c r="AD4" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="23" t="b">
         <v>1</v>
@@ -6520,7 +7374,7 @@
         <v>0.3</v>
       </c>
       <c r="AD5" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="23" t="b">
         <v>1</v>
@@ -6634,7 +7488,7 @@
         <v>0.3</v>
       </c>
       <c r="AD6" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="23" t="b">
         <v>1</v>
@@ -6748,7 +7602,7 @@
         <v>0.3</v>
       </c>
       <c r="AD7" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="23" t="b">
         <v>1</v>
@@ -6862,7 +7716,7 @@
         <v>0.3</v>
       </c>
       <c r="AD8" s="23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="23" t="b">
         <v>1</v>
@@ -6889,10 +7743,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AD2:AG8">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6904,7 +7758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ5:AJ8">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -6919,7 +7773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -6934,7 +7788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ2">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6949,7 +7803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6967,7 +7821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -7138,7 +7992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -7310,7 +8164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -7961,21 +8815,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676964C-F876-42D2-A860-F278F582B3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34163BF-EE8F-4526-864B-8541AFC4A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="287">
   <si>
     <t>Setting</t>
   </si>
@@ -407,15 +407,6 @@
     <t>Commitment</t>
   </si>
   <si>
-    <t>Tech1</t>
-  </si>
-  <si>
-    <t>STORAGE</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
     <t>ATB</t>
   </si>
   <si>
@@ -440,24 +431,12 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>Tech4</t>
-  </si>
-  <si>
     <t>Nuclear</t>
   </si>
   <si>
-    <t>Tech5</t>
-  </si>
-  <si>
-    <t>COAL</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
-    <t>Steam</t>
-  </si>
-  <si>
     <t>Tech6</t>
   </si>
   <si>
@@ -938,25 +917,10 @@
     <t>FCR</t>
   </si>
   <si>
-    <t>Tech8</t>
-  </si>
-  <si>
-    <t>Tech9</t>
-  </si>
-  <si>
-    <t>NGCC_CCS</t>
-  </si>
-  <si>
-    <t>NGCT_CCS</t>
-  </si>
-  <si>
     <t>Tech10</t>
   </si>
   <si>
     <t>Nuclear_adv</t>
-  </si>
-  <si>
-    <t>Nucelar</t>
   </si>
   <si>
     <t>ABCE_base</t>
@@ -1219,10 +1183,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,76 +1320,6 @@
     <cellStyle name="Output" xfId="10" builtinId="21"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" indent="1"/>
     </dxf>
@@ -1688,6 +1581,76 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1702,22 +1665,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M11" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="23" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M6" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:M6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="21" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="20" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="19" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="18" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="17" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="16" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="14" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="13" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="12" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="11" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="10" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="9" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1806,10 +1769,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="I1:I6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2152,53 +2115,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="b">
+      <c r="B2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2241,87 +2204,87 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" t="s">
         <v>192</v>
       </c>
-      <c r="H1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z1" t="s">
         <v>208</v>
-      </c>
-      <c r="K1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" t="s">
-        <v>209</v>
-      </c>
-      <c r="M1" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O1" t="s">
-        <v>212</v>
-      </c>
-      <c r="P1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>204</v>
-      </c>
-      <c r="R1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" t="s">
-        <v>214</v>
-      </c>
-      <c r="U1" t="s">
-        <v>199</v>
-      </c>
-      <c r="X1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -2329,50 +2292,50 @@
       <c r="F2">
         <v>2020</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" t="s">
         <v>194</v>
       </c>
-      <c r="J2" t="s">
-        <v>201</v>
-      </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="T2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="U2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="X2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="Z2">
         <v>15</v>
@@ -2380,64 +2343,64 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" t="s">
         <v>220</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Q3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
         <v>221</v>
       </c>
-      <c r="K3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>205</v>
-      </c>
-      <c r="R3">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s">
-        <v>228</v>
-      </c>
       <c r="T3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="U3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="X3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="Y3" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="Z3">
         <v>20</v>
@@ -2445,61 +2408,61 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E4">
         <v>2020</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M4" t="s">
+        <v>226</v>
+      </c>
+      <c r="N4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" t="s">
         <v>230</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" t="s">
-        <v>232</v>
-      </c>
-      <c r="M4" t="s">
-        <v>233</v>
-      </c>
-      <c r="N4" t="s">
-        <v>234</v>
-      </c>
-      <c r="O4" t="s">
-        <v>235</v>
-      </c>
-      <c r="P4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>237</v>
-      </c>
-      <c r="R4">
-        <v>30</v>
-      </c>
-      <c r="S4" t="s">
-        <v>238</v>
-      </c>
       <c r="T4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="U4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="X4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y4" s="30" t="s">
-        <v>194</v>
+        <v>186</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>187</v>
       </c>
       <c r="Z4">
         <v>30</v>
@@ -2507,55 +2470,55 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>2021</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" t="s">
         <v>239</v>
-      </c>
-      <c r="K5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" t="s">
-        <v>243</v>
-      </c>
-      <c r="O5" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>246</v>
       </c>
       <c r="R5">
         <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="U5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="X5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y5" s="30" t="s">
-        <v>220</v>
+        <v>186</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="Z5">
         <v>15</v>
@@ -2563,52 +2526,52 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E6">
         <v>2022</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>30</v>
       </c>
       <c r="J6">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M6">
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="T6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="U6" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="X6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y6" s="30" t="s">
-        <v>220</v>
+        <v>186</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="Z6">
         <v>20</v>
@@ -2616,7 +2579,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -2625,40 +2588,40 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M7">
         <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="O7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="S7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="T7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="X7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y7" s="30" t="s">
-        <v>220</v>
+        <v>186</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="Z7">
         <v>30</v>
@@ -2666,7 +2629,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>2024</v>
@@ -2675,25 +2638,25 @@
         <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L8">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="O8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="S8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="T8">
         <v>20</v>
@@ -2702,10 +2665,10 @@
         <v>20</v>
       </c>
       <c r="X8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z8">
         <v>20</v>
@@ -2713,13 +2676,13 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -2728,16 +2691,16 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q9">
         <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="T9">
         <v>30</v>
@@ -2746,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z9">
         <v>30</v>
@@ -2757,34 +2720,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E10">
         <v>2026</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N10">
         <v>30</v>
       </c>
       <c r="O10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q10">
         <v>30</v>
       </c>
       <c r="S10" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="X10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z10">
         <v>45</v>
@@ -2792,7 +2755,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>2027</v>
@@ -2804,19 +2767,19 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Q11">
         <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="X11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z11">
         <v>20</v>
@@ -2824,7 +2787,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E12">
         <v>2028</v>
@@ -2836,16 +2799,16 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="S12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="X12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z12">
         <v>30</v>
@@ -2853,7 +2816,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E13">
         <v>2029</v>
@@ -2868,13 +2831,13 @@
         <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="X13" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Z13">
         <v>45</v>
@@ -2882,7 +2845,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E14">
         <v>2030</v>
@@ -2891,13 +2854,13 @@
         <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="X14" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y14" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -2908,13 +2871,13 @@
         <v>2031</v>
       </c>
       <c r="S15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="X15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Z15">
         <v>30</v>
@@ -2925,13 +2888,13 @@
         <v>2032</v>
       </c>
       <c r="S16" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="X16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Z16">
         <v>45</v>
@@ -2945,10 +2908,10 @@
         <v>20</v>
       </c>
       <c r="X17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z17">
         <v>20</v>
@@ -2962,10 +2925,10 @@
         <v>30</v>
       </c>
       <c r="X18" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z18">
         <v>30</v>
@@ -2976,10 +2939,10 @@
         <v>2035</v>
       </c>
       <c r="X19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Z19">
         <v>45</v>
@@ -2990,10 +2953,10 @@
         <v>2036</v>
       </c>
       <c r="X20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z20">
         <v>20</v>
@@ -3004,10 +2967,10 @@
         <v>2037</v>
       </c>
       <c r="X21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z21">
         <v>30</v>
@@ -3018,10 +2981,10 @@
         <v>2038</v>
       </c>
       <c r="X22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z22">
         <v>75</v>
@@ -3032,10 +2995,10 @@
         <v>2039</v>
       </c>
       <c r="X23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -3046,10 +3009,10 @@
         <v>2040</v>
       </c>
       <c r="X24" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z24">
         <v>30</v>
@@ -3060,10 +3023,10 @@
         <v>2041</v>
       </c>
       <c r="X25" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Z25">
         <v>75</v>
@@ -3074,10 +3037,10 @@
         <v>2042</v>
       </c>
       <c r="X26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Z26">
         <v>20</v>
@@ -3088,10 +3051,10 @@
         <v>2043</v>
       </c>
       <c r="X27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Z27">
         <v>30</v>
@@ -3102,10 +3065,10 @@
         <v>2044</v>
       </c>
       <c r="X28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Z28">
         <v>75</v>
@@ -3116,10 +3079,10 @@
         <v>2045</v>
       </c>
       <c r="X29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -3130,10 +3093,10 @@
         <v>2046</v>
       </c>
       <c r="X30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Z30">
         <v>30</v>
@@ -3144,10 +3107,10 @@
         <v>2047</v>
       </c>
       <c r="X31" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y31" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Z31">
         <v>75</v>
@@ -3158,10 +3121,10 @@
         <v>2048</v>
       </c>
       <c r="X32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Z32">
         <v>20</v>
@@ -3172,10 +3135,10 @@
         <v>2049</v>
       </c>
       <c r="X33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Z33">
         <v>30</v>
@@ -3186,10 +3149,10 @@
         <v>2050</v>
       </c>
       <c r="X34" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Z34">
         <v>75</v>
@@ -3197,10 +3160,10 @@
     </row>
     <row r="35" spans="5:26">
       <c r="X35" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y35" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Z35">
         <v>20</v>
@@ -3208,10 +3171,10 @@
     </row>
     <row r="36" spans="5:26">
       <c r="X36" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y36" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Z36">
         <v>30</v>
@@ -3219,10 +3182,10 @@
     </row>
     <row r="37" spans="5:26">
       <c r="X37" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y37" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Z37">
         <v>75</v>
@@ -3230,10 +3193,10 @@
     </row>
     <row r="38" spans="5:26">
       <c r="X38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y38" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z38">
         <v>20</v>
@@ -3241,10 +3204,10 @@
     </row>
     <row r="39" spans="5:26">
       <c r="X39" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y39" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z39">
         <v>30</v>
@@ -3252,10 +3215,10 @@
     </row>
     <row r="40" spans="5:26">
       <c r="X40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y40" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z40">
         <v>75</v>
@@ -3263,10 +3226,10 @@
     </row>
     <row r="41" spans="5:26">
       <c r="X41" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y41" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z41">
         <v>20</v>
@@ -3274,10 +3237,10 @@
     </row>
     <row r="42" spans="5:26">
       <c r="X42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z42">
         <v>30</v>
@@ -3285,10 +3248,10 @@
     </row>
     <row r="43" spans="5:26">
       <c r="X43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z43">
         <v>75</v>
@@ -3296,10 +3259,10 @@
     </row>
     <row r="44" spans="5:26">
       <c r="X44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y44" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Z44">
         <v>20</v>
@@ -3307,10 +3270,10 @@
     </row>
     <row r="45" spans="5:26">
       <c r="X45" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y45" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Z45">
         <v>30</v>
@@ -3318,10 +3281,10 @@
     </row>
     <row r="46" spans="5:26">
       <c r="X46" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Y46" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Z46">
         <v>75</v>
@@ -3329,10 +3292,10 @@
     </row>
     <row r="47" spans="5:26">
       <c r="X47" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y47" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z47">
         <v>20</v>
@@ -3340,10 +3303,10 @@
     </row>
     <row r="48" spans="5:26">
       <c r="X48" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y48" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z48">
         <v>30</v>
@@ -3351,10 +3314,10 @@
     </row>
     <row r="49" spans="24:26">
       <c r="X49" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z49">
         <v>20</v>
@@ -3362,10 +3325,10 @@
     </row>
     <row r="50" spans="24:26">
       <c r="X50" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z50">
         <v>30</v>
@@ -3373,10 +3336,10 @@
     </row>
     <row r="51" spans="24:26">
       <c r="X51" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y51" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z51">
         <v>20</v>
@@ -3384,10 +3347,10 @@
     </row>
     <row r="52" spans="24:26">
       <c r="X52" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y52" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z52">
         <v>30</v>
@@ -3395,10 +3358,10 @@
     </row>
     <row r="53" spans="24:26">
       <c r="X53" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y53" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z53">
         <v>20</v>
@@ -3406,10 +3369,10 @@
     </row>
     <row r="54" spans="24:26">
       <c r="X54" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y54" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z54">
         <v>30</v>
@@ -3417,10 +3380,10 @@
     </row>
     <row r="55" spans="24:26">
       <c r="X55" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y55" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z55">
         <v>20</v>
@@ -3428,10 +3391,10 @@
     </row>
     <row r="56" spans="24:26">
       <c r="X56" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y56" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z56">
         <v>30</v>
@@ -3439,10 +3402,10 @@
     </row>
     <row r="57" spans="24:26">
       <c r="X57" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y57" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z57">
         <v>20</v>
@@ -3450,10 +3413,10 @@
     </row>
     <row r="58" spans="24:26">
       <c r="X58" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y58" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z58">
         <v>30</v>
@@ -3461,10 +3424,10 @@
     </row>
     <row r="59" spans="24:26">
       <c r="X59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z59">
         <v>20</v>
@@ -3472,10 +3435,10 @@
     </row>
     <row r="60" spans="24:26">
       <c r="X60" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z60">
         <v>30</v>
@@ -3483,10 +3446,10 @@
     </row>
     <row r="61" spans="24:26">
       <c r="X61" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y61" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Z61">
         <v>20</v>
@@ -3494,10 +3457,10 @@
     </row>
     <row r="62" spans="24:26">
       <c r="X62" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y62" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Z62">
         <v>30</v>
@@ -3505,10 +3468,10 @@
     </row>
     <row r="63" spans="24:26">
       <c r="X63" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y63" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Z63">
         <v>20</v>
@@ -3516,10 +3479,10 @@
     </row>
     <row r="64" spans="24:26">
       <c r="X64" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y64" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Z64">
         <v>30</v>
@@ -3527,10 +3490,10 @@
     </row>
     <row r="65" spans="24:26">
       <c r="X65" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y65" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Z65">
         <v>20</v>
@@ -3538,10 +3501,10 @@
     </row>
     <row r="66" spans="24:26">
       <c r="X66" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Y66" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Z66">
         <v>30</v>
@@ -3549,10 +3512,10 @@
     </row>
     <row r="67" spans="24:26">
       <c r="X67" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y67" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z67">
         <v>20</v>
@@ -3560,10 +3523,10 @@
     </row>
     <row r="68" spans="24:26">
       <c r="X68" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y68" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z68">
         <v>30</v>
@@ -3571,10 +3534,10 @@
     </row>
     <row r="69" spans="24:26">
       <c r="X69" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y69" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Z69">
         <v>20</v>
@@ -3582,10 +3545,10 @@
     </row>
     <row r="70" spans="24:26">
       <c r="X70" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y70" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Z70">
         <v>30</v>
@@ -3593,10 +3556,10 @@
     </row>
     <row r="71" spans="24:26">
       <c r="X71" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y71" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Z71">
         <v>20</v>
@@ -3604,10 +3567,10 @@
     </row>
     <row r="72" spans="24:26">
       <c r="X72" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y72" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Z72">
         <v>30</v>
@@ -3615,10 +3578,10 @@
     </row>
     <row r="73" spans="24:26">
       <c r="X73" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y73" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Z73">
         <v>20</v>
@@ -3626,10 +3589,10 @@
     </row>
     <row r="74" spans="24:26">
       <c r="X74" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y74" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Z74">
         <v>30</v>
@@ -3637,10 +3600,10 @@
     </row>
     <row r="75" spans="24:26">
       <c r="X75" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y75" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -3648,10 +3611,10 @@
     </row>
     <row r="76" spans="24:26">
       <c r="X76" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Z76">
         <v>30</v>
@@ -3659,10 +3622,10 @@
     </row>
     <row r="77" spans="24:26">
       <c r="X77" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y77" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Z77">
         <v>20</v>
@@ -3670,10 +3633,10 @@
     </row>
     <row r="78" spans="24:26">
       <c r="X78" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y78" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Z78">
         <v>30</v>
@@ -3681,10 +3644,10 @@
     </row>
     <row r="79" spans="24:26">
       <c r="X79" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y79" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Z79">
         <v>20</v>
@@ -3692,10 +3655,10 @@
     </row>
     <row r="80" spans="24:26">
       <c r="X80" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Y80" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Z80">
         <v>30</v>
@@ -3703,10 +3666,10 @@
     </row>
     <row r="81" spans="24:26">
       <c r="X81" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y81" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z81">
         <v>20</v>
@@ -3714,10 +3677,10 @@
     </row>
     <row r="82" spans="24:26">
       <c r="X82" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y82" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z82">
         <v>30</v>
@@ -3725,10 +3688,10 @@
     </row>
     <row r="83" spans="24:26">
       <c r="X83" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y83" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z83">
         <v>100</v>
@@ -3736,10 +3699,10 @@
     </row>
     <row r="84" spans="24:26">
       <c r="X84" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y84" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z84">
         <v>20</v>
@@ -3747,10 +3710,10 @@
     </row>
     <row r="85" spans="24:26">
       <c r="X85" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y85" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z85">
         <v>30</v>
@@ -3758,10 +3721,10 @@
     </row>
     <row r="86" spans="24:26">
       <c r="X86" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y86" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z86">
         <v>100</v>
@@ -3769,10 +3732,10 @@
     </row>
     <row r="87" spans="24:26">
       <c r="X87" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y87" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Z87">
         <v>20</v>
@@ -3780,10 +3743,10 @@
     </row>
     <row r="88" spans="24:26">
       <c r="X88" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y88" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Z88">
         <v>30</v>
@@ -3791,10 +3754,10 @@
     </row>
     <row r="89" spans="24:26">
       <c r="X89" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y89" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Z89">
         <v>100</v>
@@ -3802,10 +3765,10 @@
     </row>
     <row r="90" spans="24:26">
       <c r="X90" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y90" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z90">
         <v>20</v>
@@ -3813,10 +3776,10 @@
     </row>
     <row r="91" spans="24:26">
       <c r="X91" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y91" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z91">
         <v>30</v>
@@ -3824,10 +3787,10 @@
     </row>
     <row r="92" spans="24:26">
       <c r="X92" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y92" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z92">
         <v>100</v>
@@ -3835,10 +3798,10 @@
     </row>
     <row r="93" spans="24:26">
       <c r="X93" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y93" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Z93">
         <v>20</v>
@@ -3846,10 +3809,10 @@
     </row>
     <row r="94" spans="24:26">
       <c r="X94" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y94" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Z94">
         <v>30</v>
@@ -3857,10 +3820,10 @@
     </row>
     <row r="95" spans="24:26">
       <c r="X95" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y95" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Z95">
         <v>100</v>
@@ -3868,10 +3831,10 @@
     </row>
     <row r="96" spans="24:26">
       <c r="X96" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y96" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Z96">
         <v>20</v>
@@ -3879,10 +3842,10 @@
     </row>
     <row r="97" spans="24:26">
       <c r="X97" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y97" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Z97">
         <v>30</v>
@@ -3890,10 +3853,10 @@
     </row>
     <row r="98" spans="24:26">
       <c r="X98" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y98" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Z98">
         <v>100</v>
@@ -3901,10 +3864,10 @@
     </row>
     <row r="99" spans="24:26">
       <c r="X99" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y99" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Z99">
         <v>20</v>
@@ -3912,10 +3875,10 @@
     </row>
     <row r="100" spans="24:26">
       <c r="X100" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y100" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Z100">
         <v>30</v>
@@ -3923,10 +3886,10 @@
     </row>
     <row r="101" spans="24:26">
       <c r="X101" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y101" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Z101">
         <v>100</v>
@@ -3934,10 +3897,10 @@
     </row>
     <row r="102" spans="24:26">
       <c r="X102" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y102" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Z102">
         <v>20</v>
@@ -3945,10 +3908,10 @@
     </row>
     <row r="103" spans="24:26">
       <c r="X103" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y103" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Z103">
         <v>30</v>
@@ -3956,10 +3919,10 @@
     </row>
     <row r="104" spans="24:26">
       <c r="X104" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y104" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Z104">
         <v>100</v>
@@ -3967,10 +3930,10 @@
     </row>
     <row r="105" spans="24:26">
       <c r="X105" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y105" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Z105">
         <v>20</v>
@@ -3978,10 +3941,10 @@
     </row>
     <row r="106" spans="24:26">
       <c r="X106" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y106" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Z106">
         <v>30</v>
@@ -3989,10 +3952,10 @@
     </row>
     <row r="107" spans="24:26">
       <c r="X107" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Y107" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Z107">
         <v>100</v>
@@ -4000,10 +3963,10 @@
     </row>
     <row r="108" spans="24:26">
       <c r="X108" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y108" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z108">
         <v>20</v>
@@ -4011,10 +3974,10 @@
     </row>
     <row r="109" spans="24:26">
       <c r="X109" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y109" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z109">
         <v>30</v>
@@ -4022,10 +3985,10 @@
     </row>
     <row r="110" spans="24:26">
       <c r="X110" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y110" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Z110">
         <v>20</v>
@@ -4033,10 +3996,10 @@
     </row>
     <row r="111" spans="24:26">
       <c r="X111" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y111" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Z111">
         <v>30</v>
@@ -4044,10 +4007,10 @@
     </row>
     <row r="112" spans="24:26">
       <c r="X112" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y112" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Z112">
         <v>20</v>
@@ -4055,10 +4018,10 @@
     </row>
     <row r="113" spans="24:26">
       <c r="X113" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y113" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Z113">
         <v>30</v>
@@ -4066,10 +4029,10 @@
     </row>
     <row r="114" spans="24:26">
       <c r="X114" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y114" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z114">
         <v>20</v>
@@ -4077,10 +4040,10 @@
     </row>
     <row r="115" spans="24:26">
       <c r="X115" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y115" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z115">
         <v>30</v>
@@ -4088,10 +4051,10 @@
     </row>
     <row r="116" spans="24:26">
       <c r="X116" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y116" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z116">
         <v>20</v>
@@ -4099,10 +4062,10 @@
     </row>
     <row r="117" spans="24:26">
       <c r="X117" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y117" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z117">
         <v>30</v>
@@ -4110,10 +4073,10 @@
     </row>
     <row r="118" spans="24:26">
       <c r="X118" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y118" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Z118">
         <v>20</v>
@@ -4121,10 +4084,10 @@
     </row>
     <row r="119" spans="24:26">
       <c r="X119" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y119" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Z119">
         <v>30</v>
@@ -4132,10 +4095,10 @@
     </row>
     <row r="120" spans="24:26">
       <c r="X120" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y120" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Z120">
         <v>20</v>
@@ -4143,10 +4106,10 @@
     </row>
     <row r="121" spans="24:26">
       <c r="X121" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y121" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Z121">
         <v>30</v>
@@ -4154,10 +4117,10 @@
     </row>
     <row r="122" spans="24:26">
       <c r="X122" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y122" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Z122">
         <v>20</v>
@@ -4165,10 +4128,10 @@
     </row>
     <row r="123" spans="24:26">
       <c r="X123" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y123" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Z123">
         <v>30</v>
@@ -4176,10 +4139,10 @@
     </row>
     <row r="124" spans="24:26">
       <c r="X124" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y124" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Z124">
         <v>20</v>
@@ -4187,10 +4150,10 @@
     </row>
     <row r="125" spans="24:26">
       <c r="X125" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y125" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Z125">
         <v>30</v>
@@ -4198,10 +4161,10 @@
     </row>
     <row r="126" spans="24:26">
       <c r="X126" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y126" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Z126">
         <v>20</v>
@@ -4209,10 +4172,10 @@
     </row>
     <row r="127" spans="24:26">
       <c r="X127" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y127" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Z127">
         <v>30</v>
@@ -4220,10 +4183,10 @@
     </row>
     <row r="128" spans="24:26">
       <c r="X128" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y128" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Z128">
         <v>20</v>
@@ -4231,10 +4194,10 @@
     </row>
     <row r="129" spans="24:26">
       <c r="X129" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Y129" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Z129">
         <v>30</v>
@@ -4242,10 +4205,10 @@
     </row>
     <row r="130" spans="24:26">
       <c r="X130" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y130" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z130">
         <v>20</v>
@@ -4253,10 +4216,10 @@
     </row>
     <row r="131" spans="24:26">
       <c r="X131" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y131" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z131">
         <v>30</v>
@@ -4264,10 +4227,10 @@
     </row>
     <row r="132" spans="24:26">
       <c r="X132" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y132" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z132">
         <v>55</v>
@@ -4275,10 +4238,10 @@
     </row>
     <row r="133" spans="24:26">
       <c r="X133" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y133" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Z133">
         <v>20</v>
@@ -4286,10 +4249,10 @@
     </row>
     <row r="134" spans="24:26">
       <c r="X134" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y134" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Z134">
         <v>30</v>
@@ -4297,10 +4260,10 @@
     </row>
     <row r="135" spans="24:26">
       <c r="X135" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y135" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Z135">
         <v>55</v>
@@ -4308,10 +4271,10 @@
     </row>
     <row r="136" spans="24:26">
       <c r="X136" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y136" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Z136">
         <v>20</v>
@@ -4319,10 +4282,10 @@
     </row>
     <row r="137" spans="24:26">
       <c r="X137" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y137" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Z137">
         <v>30</v>
@@ -4330,10 +4293,10 @@
     </row>
     <row r="138" spans="24:26">
       <c r="X138" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y138" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Z138">
         <v>55</v>
@@ -4341,10 +4304,10 @@
     </row>
     <row r="139" spans="24:26">
       <c r="X139" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y139" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z139">
         <v>20</v>
@@ -4352,10 +4315,10 @@
     </row>
     <row r="140" spans="24:26">
       <c r="X140" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y140" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z140">
         <v>30</v>
@@ -4363,10 +4326,10 @@
     </row>
     <row r="141" spans="24:26">
       <c r="X141" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y141" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Z141">
         <v>55</v>
@@ -4374,10 +4337,10 @@
     </row>
     <row r="142" spans="24:26">
       <c r="X142" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y142" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Z142">
         <v>20</v>
@@ -4385,10 +4348,10 @@
     </row>
     <row r="143" spans="24:26">
       <c r="X143" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y143" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Z143">
         <v>30</v>
@@ -4396,10 +4359,10 @@
     </row>
     <row r="144" spans="24:26">
       <c r="X144" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y144" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Z144">
         <v>55</v>
@@ -4407,10 +4370,10 @@
     </row>
     <row r="145" spans="24:26">
       <c r="X145" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y145" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z145">
         <v>20</v>
@@ -4418,10 +4381,10 @@
     </row>
     <row r="146" spans="24:26">
       <c r="X146" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y146" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z146">
         <v>30</v>
@@ -4429,10 +4392,10 @@
     </row>
     <row r="147" spans="24:26">
       <c r="X147" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y147" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z147">
         <v>55</v>
@@ -4440,10 +4403,10 @@
     </row>
     <row r="148" spans="24:26">
       <c r="X148" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y148" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Z148">
         <v>20</v>
@@ -4451,10 +4414,10 @@
     </row>
     <row r="149" spans="24:26">
       <c r="X149" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y149" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Z149">
         <v>30</v>
@@ -4462,10 +4425,10 @@
     </row>
     <row r="150" spans="24:26">
       <c r="X150" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Y150" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Z150">
         <v>55</v>
@@ -4473,10 +4436,10 @@
     </row>
     <row r="151" spans="24:26">
       <c r="X151" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y151" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z151">
         <v>20</v>
@@ -4484,10 +4447,10 @@
     </row>
     <row r="152" spans="24:26">
       <c r="X152" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y152" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z152">
         <v>30</v>
@@ -4495,10 +4458,10 @@
     </row>
     <row r="153" spans="24:26">
       <c r="X153" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y153" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z153">
         <v>60</v>
@@ -4506,10 +4469,10 @@
     </row>
     <row r="154" spans="24:26">
       <c r="X154" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y154" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z154">
         <v>20</v>
@@ -4517,10 +4480,10 @@
     </row>
     <row r="155" spans="24:26">
       <c r="X155" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y155" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z155">
         <v>30</v>
@@ -4528,10 +4491,10 @@
     </row>
     <row r="156" spans="24:26">
       <c r="X156" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y156" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z156">
         <v>60</v>
@@ -4539,10 +4502,10 @@
     </row>
     <row r="157" spans="24:26">
       <c r="X157" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y157" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z157">
         <v>20</v>
@@ -4550,10 +4513,10 @@
     </row>
     <row r="158" spans="24:26">
       <c r="X158" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y158" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z158">
         <v>30</v>
@@ -4561,10 +4524,10 @@
     </row>
     <row r="159" spans="24:26">
       <c r="X159" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y159" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z159">
         <v>60</v>
@@ -4572,10 +4535,10 @@
     </row>
     <row r="160" spans="24:26">
       <c r="X160" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y160" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z160">
         <v>20</v>
@@ -4583,10 +4546,10 @@
     </row>
     <row r="161" spans="24:26">
       <c r="X161" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y161" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z161">
         <v>30</v>
@@ -4594,10 +4557,10 @@
     </row>
     <row r="162" spans="24:26">
       <c r="X162" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y162" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Z162">
         <v>20</v>
@@ -4605,10 +4568,10 @@
     </row>
     <row r="163" spans="24:26">
       <c r="X163" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y163" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Z163">
         <v>30</v>
@@ -4616,10 +4579,10 @@
     </row>
     <row r="164" spans="24:26">
       <c r="X164" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y164" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Z164">
         <v>20</v>
@@ -4627,10 +4590,10 @@
     </row>
     <row r="165" spans="24:26">
       <c r="X165" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y165" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Z165">
         <v>30</v>
@@ -4638,10 +4601,10 @@
     </row>
     <row r="166" spans="24:26">
       <c r="X166" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y166" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z166">
         <v>20</v>
@@ -4649,10 +4612,10 @@
     </row>
     <row r="167" spans="24:26">
       <c r="X167" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y167" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z167">
         <v>30</v>
@@ -4660,10 +4623,10 @@
     </row>
     <row r="168" spans="24:26">
       <c r="X168" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y168" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Z168">
         <v>20</v>
@@ -4671,10 +4634,10 @@
     </row>
     <row r="169" spans="24:26">
       <c r="X169" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y169" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Z169">
         <v>30</v>
@@ -4682,10 +4645,10 @@
     </row>
     <row r="170" spans="24:26">
       <c r="X170" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y170" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z170">
         <v>20</v>
@@ -4693,10 +4656,10 @@
     </row>
     <row r="171" spans="24:26">
       <c r="X171" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y171" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Z171">
         <v>30</v>
@@ -4704,10 +4667,10 @@
     </row>
     <row r="172" spans="24:26">
       <c r="X172" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y172" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z172">
         <v>20</v>
@@ -4715,10 +4678,10 @@
     </row>
     <row r="173" spans="24:26">
       <c r="X173" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y173" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z173">
         <v>30</v>
@@ -4726,10 +4689,10 @@
     </row>
     <row r="174" spans="24:26">
       <c r="X174" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y174" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Z174">
         <v>20</v>
@@ -4737,10 +4700,10 @@
     </row>
     <row r="175" spans="24:26">
       <c r="X175" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y175" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Z175">
         <v>30</v>
@@ -4748,10 +4711,10 @@
     </row>
     <row r="176" spans="24:26">
       <c r="X176" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y176" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Z176">
         <v>20</v>
@@ -4759,10 +4722,10 @@
     </row>
     <row r="177" spans="24:26">
       <c r="X177" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y177" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Z177">
         <v>30</v>
@@ -4770,10 +4733,10 @@
     </row>
     <row r="178" spans="24:26">
       <c r="X178" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y178" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Z178">
         <v>20</v>
@@ -4781,10 +4744,10 @@
     </row>
     <row r="179" spans="24:26">
       <c r="X179" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y179" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Z179">
         <v>30</v>
@@ -4792,10 +4755,10 @@
     </row>
     <row r="180" spans="24:26">
       <c r="X180" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y180" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Z180">
         <v>20</v>
@@ -4803,10 +4766,10 @@
     </row>
     <row r="181" spans="24:26">
       <c r="X181" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y181" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Z181">
         <v>30</v>
@@ -4814,10 +4777,10 @@
     </row>
     <row r="182" spans="24:26">
       <c r="X182" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y182" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Z182">
         <v>20</v>
@@ -4825,10 +4788,10 @@
     </row>
     <row r="183" spans="24:26">
       <c r="X183" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y183" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Z183">
         <v>30</v>
@@ -4836,10 +4799,10 @@
     </row>
     <row r="184" spans="24:26">
       <c r="X184" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y184" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Z184">
         <v>20</v>
@@ -4847,10 +4810,10 @@
     </row>
     <row r="185" spans="24:26">
       <c r="X185" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y185" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Z185">
         <v>30</v>
@@ -4858,10 +4821,10 @@
     </row>
     <row r="186" spans="24:26">
       <c r="X186" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y186" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z186">
         <v>20</v>
@@ -4869,10 +4832,10 @@
     </row>
     <row r="187" spans="24:26">
       <c r="X187" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y187" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z187">
         <v>30</v>
@@ -4880,10 +4843,10 @@
     </row>
     <row r="188" spans="24:26">
       <c r="X188" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y188" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Z188">
         <v>20</v>
@@ -4891,10 +4854,10 @@
     </row>
     <row r="189" spans="24:26">
       <c r="X189" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Y189" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Z189">
         <v>30</v>
@@ -4902,10 +4865,10 @@
     </row>
     <row r="190" spans="24:26">
       <c r="X190" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y190" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z190">
         <v>20</v>
@@ -4913,10 +4876,10 @@
     </row>
     <row r="191" spans="24:26">
       <c r="X191" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y191" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z191">
         <v>30</v>
@@ -4924,10 +4887,10 @@
     </row>
     <row r="192" spans="24:26">
       <c r="X192" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y192" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z192">
         <v>20</v>
@@ -4935,10 +4898,10 @@
     </row>
     <row r="193" spans="24:26">
       <c r="X193" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y193" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z193">
         <v>30</v>
@@ -4946,10 +4909,10 @@
     </row>
     <row r="194" spans="24:26">
       <c r="X194" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y194" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z194">
         <v>20</v>
@@ -4957,10 +4920,10 @@
     </row>
     <row r="195" spans="24:26">
       <c r="X195" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y195" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z195">
         <v>30</v>
@@ -4968,10 +4931,10 @@
     </row>
     <row r="196" spans="24:26">
       <c r="X196" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y196" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z196">
         <v>20</v>
@@ -4979,10 +4942,10 @@
     </row>
     <row r="197" spans="24:26">
       <c r="X197" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y197" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z197">
         <v>30</v>
@@ -4990,10 +4953,10 @@
     </row>
     <row r="198" spans="24:26">
       <c r="X198" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y198" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z198">
         <v>20</v>
@@ -5001,10 +4964,10 @@
     </row>
     <row r="199" spans="24:26">
       <c r="X199" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y199" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z199">
         <v>30</v>
@@ -5012,10 +4975,10 @@
     </row>
     <row r="200" spans="24:26">
       <c r="X200" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y200" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z200">
         <v>20</v>
@@ -5023,10 +4986,10 @@
     </row>
     <row r="201" spans="24:26">
       <c r="X201" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y201" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z201">
         <v>30</v>
@@ -5034,10 +4997,10 @@
     </row>
     <row r="202" spans="24:26">
       <c r="X202" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y202" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z202">
         <v>20</v>
@@ -5045,10 +5008,10 @@
     </row>
     <row r="203" spans="24:26">
       <c r="X203" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y203" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Z203">
         <v>30</v>
@@ -5056,10 +5019,10 @@
     </row>
     <row r="204" spans="24:26">
       <c r="X204" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y204" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z204">
         <v>20</v>
@@ -5067,10 +5030,10 @@
     </row>
     <row r="205" spans="24:26">
       <c r="X205" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y205" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Z205">
         <v>30</v>
@@ -5078,10 +5041,10 @@
     </row>
     <row r="206" spans="24:26">
       <c r="X206" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y206" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z206">
         <v>20</v>
@@ -5089,10 +5052,10 @@
     </row>
     <row r="207" spans="24:26">
       <c r="X207" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y207" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Z207">
         <v>30</v>
@@ -5100,10 +5063,10 @@
     </row>
     <row r="208" spans="24:26">
       <c r="X208" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y208" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z208">
         <v>20</v>
@@ -5111,10 +5074,10 @@
     </row>
     <row r="209" spans="24:26">
       <c r="X209" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y209" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z209">
         <v>30</v>
@@ -5122,10 +5085,10 @@
     </row>
     <row r="210" spans="24:26">
       <c r="X210" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y210" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z210">
         <v>20</v>
@@ -5133,10 +5096,10 @@
     </row>
     <row r="211" spans="24:26">
       <c r="X211" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y211" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z211">
         <v>30</v>
@@ -5144,10 +5107,10 @@
     </row>
     <row r="212" spans="24:26">
       <c r="X212" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y212" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z212">
         <v>20</v>
@@ -5155,10 +5118,10 @@
     </row>
     <row r="213" spans="24:26">
       <c r="X213" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y213" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z213">
         <v>30</v>
@@ -5191,7 +5154,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5202,185 +5165,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>2019</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>2050</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="28">
-        <f>B3-B2</f>
+      <c r="B4" s="27">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35">
-        <f>B4/B5</f>
+      <c r="B6" s="34">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="36">
-        <f>(1+B7)^(B4/B5)</f>
+      <c r="B8" s="35">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>0.13750000000000001</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="39" t="b">
+      <c r="B11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>283</v>
+      <c r="C11" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>1</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>284</v>
+      <c r="C12" s="37" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="39">
         <v>0.2</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5412,167 +5372,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="42" t="b">
+      <c r="B6" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>0.01</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="38" t="s">
+      <c r="B9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="39" t="b">
+      <c r="B10" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="39" t="b">
+      <c r="B11" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="39">
         <v>100000</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="46" t="b">
+      <c r="B13" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>286</v>
+      <c r="C13" s="37" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>287</v>
+      <c r="B14" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>1</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5592,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5607,90 +5567,90 @@
     <col min="27" max="27" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="25" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:25" s="24" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="W1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="X1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="33"/>
+      <c r="Y1" s="32"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>365</v>
@@ -5705,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>104512</v>
+        <v>74545</v>
       </c>
       <c r="I2" s="1">
         <v>0.13750000000000001</v>
@@ -5723,10 +5683,10 @@
         <v>100</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P2" s="1">
         <v>10000</v>
@@ -5758,40 +5718,34 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="14.65" thickBot="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="2"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5804,10 +5758,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5827,685 +5781,660 @@
     <col min="34" max="34" width="23.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="25" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:39" s="24" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
+      <c r="A1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="J1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="V1" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="W1" s="24" t="s">
+      <c r="V1" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AH1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ1" s="23"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="18">
+        <v>100</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="19">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+      <c r="U2" s="18">
+        <v>1</v>
+      </c>
+      <c r="V2" s="21">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
+      <c r="X2" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>0.37</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="18"/>
+      <c r="AM2" s="19"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="18">
+        <v>100</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>3.4119999999999999</v>
+      </c>
+      <c r="T3" s="18">
+        <v>1</v>
+      </c>
+      <c r="U3" s="18">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21">
+        <v>0</v>
+      </c>
+      <c r="W3" s="21">
+        <v>0</v>
+      </c>
+      <c r="X3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="18"/>
+      <c r="AM3" s="19"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="18">
+        <v>200</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>13.638999999999999</v>
+      </c>
+      <c r="N4" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>6.4009999999999998</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>53.18</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="18"/>
+      <c r="AM4" s="19"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="18">
+        <v>50</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0.92</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>5.6829999999999998</v>
+      </c>
+      <c r="N5" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="19">
+        <v>9.5150000000000006</v>
+      </c>
+      <c r="T5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="X5" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>53.18</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="18"/>
+      <c r="AM5" s="19"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="AJ1" s="24"/>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="19">
-        <v>100</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="B6" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="18">
+        <v>300</v>
+      </c>
+      <c r="G6" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="22">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="20">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19">
-        <v>0</v>
-      </c>
-      <c r="S2" s="20">
-        <v>3.4119999999999999</v>
-      </c>
-      <c r="T2" s="19">
+      <c r="H6" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>4989</v>
+      </c>
+      <c r="K6" s="18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>76.138999999999996</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1.88</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>10.608000000000001</v>
+      </c>
+      <c r="T6" s="18">
         <v>1</v>
       </c>
-      <c r="U2" s="19">
+      <c r="U6" s="18">
         <v>1</v>
       </c>
-      <c r="V2" s="22">
-        <v>0</v>
-      </c>
-      <c r="W2" s="22">
-        <v>0</v>
-      </c>
-      <c r="X2" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="22">
-        <v>0.37</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="19" t="b">
+      <c r="V6" s="21">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="X6" s="21">
         <v>1</v>
       </c>
-      <c r="AE2" s="19" t="b">
+      <c r="Y6" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AF2" s="19" t="b">
+      <c r="AI6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AG2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="19"/>
-      <c r="AM2" s="20"/>
-    </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" s="19">
-        <v>100</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P3" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19">
-        <v>0</v>
-      </c>
-      <c r="S3" s="20">
-        <v>3.4119999999999999</v>
-      </c>
-      <c r="T3" s="19">
-        <v>1</v>
-      </c>
-      <c r="U3" s="19">
-        <v>1</v>
-      </c>
-      <c r="V3" s="22">
-        <v>0</v>
-      </c>
-      <c r="W3" s="22">
-        <v>0</v>
-      </c>
-      <c r="X3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>0.22</v>
-      </c>
-      <c r="Z3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="19"/>
-      <c r="AM3" s="20"/>
-    </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="19">
-        <v>200</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>13.638999999999999</v>
-      </c>
-      <c r="N4" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
-        <v>6.4009999999999998</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="U4" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="V4" s="22">
-        <v>0.25</v>
-      </c>
-      <c r="W4" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="X4" s="22">
-        <v>0.35</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>53.18</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="19"/>
-      <c r="AM4" s="20"/>
-    </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="19">
-        <v>50</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.92</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>5.6829999999999998</v>
-      </c>
-      <c r="N5" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="20">
-        <v>9.5150000000000006</v>
-      </c>
-      <c r="T5" s="19">
-        <v>1</v>
-      </c>
-      <c r="U5" s="19">
-        <v>1</v>
-      </c>
-      <c r="V5" s="22">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="W5" s="22">
-        <v>0.83</v>
-      </c>
-      <c r="X5" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>0.92</v>
-      </c>
-      <c r="Z5" s="19">
-        <v>53.18</v>
-      </c>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="19"/>
-      <c r="AM5" s="20"/>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="19">
-        <v>300</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4989</v>
-      </c>
-      <c r="K6" s="19">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>76.138999999999996</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1.88</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0</v>
-      </c>
-      <c r="S6" s="20">
-        <v>10.608000000000001</v>
-      </c>
-      <c r="T6" s="19">
-        <v>1</v>
-      </c>
-      <c r="U6" s="19">
-        <v>1</v>
-      </c>
-      <c r="V6" s="22">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="W6" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="X6" s="22">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:39">
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="I15" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH2">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6520,7 +6449,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6535,7 +6464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -6550,7 +6479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH6">
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -6565,7 +6494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI6">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -6580,7 +6509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AF6">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6614,150 +6543,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="B10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="B11" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="B15" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
+      <c r="B16" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6771,10 +6700,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6795,462 +6724,257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.65" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="J2" s="31">
+        <v>30</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="31">
+        <v>2025</v>
+      </c>
+      <c r="M2" s="31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
+      <c r="H3" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="31">
+        <v>30</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="31">
+        <v>2025</v>
+      </c>
+      <c r="M3" s="31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="B4" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="31">
+        <v>30</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="32">
-        <v>30</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L2" s="32">
+      <c r="L4" s="31">
         <v>2025</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M4" s="31">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="31" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="B5" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="H5" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="31">
+        <v>30</v>
+      </c>
+      <c r="K5" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="32">
-        <v>30</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L3" s="32">
+      <c r="L5" s="31">
         <v>2025</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M5" s="31">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="31" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B6" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="32" t="s">
+      <c r="F6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="31">
+        <v>30</v>
+      </c>
+      <c r="K6" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="32">
-        <v>30</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L4" s="32">
+      <c r="L6" s="31">
         <v>2025</v>
       </c>
-      <c r="M4" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="32">
-        <v>30</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M5" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="32">
-        <v>30</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M6" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J7" s="32">
-        <v>30</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L7" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M7" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" s="32">
-        <v>30</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M8" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J9" s="32">
-        <v>30</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M9" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="32">
-        <v>30</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M10" s="32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J11" s="32">
-        <v>30</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="32">
-        <v>2025</v>
-      </c>
-      <c r="M11" s="32">
+      <c r="M6" s="31">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G11" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1 xml:space="preserve"> Technology</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H11 J2:J11" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J2:J6 H2:H6" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7277,146 +7001,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="9" t="b">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="9" t="b">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>179</v>
+      <c r="B13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34163BF-EE8F-4526-864B-8541AFC4A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C52021-C0DE-484B-87EA-7729E965A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,13 +923,13 @@
     <t>Nuclear_adv</t>
   </si>
   <si>
-    <t>ABCE_base</t>
-  </si>
-  <si>
     <t>Hourly</t>
   </si>
   <si>
     <t>timeseries_data_files/Load/timeseries_load_5mins.csv</t>
+  </si>
+  <si>
+    <t>ABCE_base_derate</t>
   </si>
 </sst>
 </file>
@@ -5555,7 +5555,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>80</v>
@@ -5761,7 +5761,7 @@
   <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6639,7 +6639,7 @@
         <v>148</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -7016,7 +7016,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>160</v>

--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C52021-C0DE-484B-87EA-7729E965A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECBE1A-4701-4ABA-A9EB-5D09A33D9B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1321,6 +1321,76 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" indent="1"/>
     </dxf>
     <dxf>
@@ -1581,76 +1651,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1665,22 +1665,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M6" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M6" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="23" headerRowCellStyle="Heading 3">
   <autoFilter ref="A1:M6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="14" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="13" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="12" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="11" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="10" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="9" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="21" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="20" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="19" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="18" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="17" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="16" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1769,10 +1769,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="I1:I6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5552,10 +5552,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5717,35 +5717,9 @@
       </c>
       <c r="Y2" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="14.65" thickBot="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6434,7 +6408,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH2">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6449,7 +6423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6464,7 +6438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -6479,7 +6453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH6">
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -6494,7 +6468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI6">
-    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -6509,7 +6483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AF6">
-    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">

--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECBE1A-4701-4ABA-A9EB-5D09A33D9B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665FAFF-B628-41A0-830A-96BBE2BE67FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_GEP Setting" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="286">
   <si>
     <t>Setting</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Gas CC</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>Gas</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>Gas CT</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>data_path</t>
   </si>
   <si>
@@ -930,6 +924,9 @@
   </si>
   <si>
     <t>ABCE_base_derate</t>
+  </si>
+  <si>
+    <t>AdvancedNuclear</t>
   </si>
 </sst>
 </file>
@@ -1321,76 +1318,6 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" indent="1"/>
     </dxf>
     <dxf>
@@ -1651,6 +1578,76 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1665,22 +1662,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M6" totalsRowShown="0" dataDxfId="22" headerRowBorderDxfId="23" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A1:M6" totalsRowShown="0" dataDxfId="15" headerRowBorderDxfId="16" headerRowCellStyle="Heading 3">
   <autoFilter ref="A1:M6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="21" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="20" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="19" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="18" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="17" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="16" dataCellStyle="20% - Accent4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATB_Setting_ID" dataDxfId="14" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tech_ID" dataDxfId="13" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="UNITGROUP" dataDxfId="12" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="UNIT_CATEGORY" dataDxfId="11" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="UNIT_TYPE" dataDxfId="10" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FUEL" dataDxfId="9" dataCellStyle="20% - Accent4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tech" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="TechDetail" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Case" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="CRP" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Scenario" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Year" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="ATB Year" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1769,10 +1766,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="I1:I6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Battery" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2204,87 +2201,87 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" t="s">
-        <v>186</v>
-      </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
         <v>121</v>
       </c>
       <c r="L1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" t="s">
+        <v>201</v>
+      </c>
+      <c r="N1" t="s">
         <v>202</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>203</v>
       </c>
-      <c r="N1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O1" t="s">
-        <v>205</v>
-      </c>
       <c r="P1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R1" t="s">
         <v>120</v>
       </c>
       <c r="S1" t="s">
+        <v>204</v>
+      </c>
+      <c r="T1" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" t="s">
         <v>206</v>
-      </c>
-      <c r="T1" t="s">
-        <v>207</v>
-      </c>
-      <c r="U1" t="s">
-        <v>192</v>
-      </c>
-      <c r="X1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -2293,49 +2290,49 @@
         <v>2020</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z2">
         <v>15</v>
@@ -2343,64 +2340,64 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="I3" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" t="s">
         <v>213</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>214</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>215</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>216</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>217</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>218</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>198</v>
-      </c>
-      <c r="R3">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s">
-        <v>221</v>
-      </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y3" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z3">
         <v>20</v>
@@ -2411,10 +2408,10 @@
         <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -2423,46 +2420,46 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" t="s">
         <v>223</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>224</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>225</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>226</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>227</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>228</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>229</v>
       </c>
-      <c r="Q4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R4">
-        <v>30</v>
-      </c>
-      <c r="S4" t="s">
-        <v>231</v>
-      </c>
       <c r="T4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z4">
         <v>30</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>2021</v>
@@ -2479,46 +2476,46 @@
         <v>20</v>
       </c>
       <c r="J5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" t="s">
         <v>232</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>233</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>234</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>235</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>236</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>237</v>
-      </c>
-      <c r="P5" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>239</v>
       </c>
       <c r="R5">
         <v>60</v>
       </c>
       <c r="S5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="U5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="X5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z5">
         <v>15</v>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -2538,40 +2535,40 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
+        <v>239</v>
+      </c>
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" t="s">
         <v>241</v>
       </c>
-      <c r="L6" t="s">
-        <v>193</v>
-      </c>
-      <c r="M6">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>242</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
-        <v>245</v>
-      </c>
-      <c r="S6" t="s">
-        <v>246</v>
-      </c>
       <c r="T6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y6" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z6">
         <v>20</v>
@@ -2579,7 +2576,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -2588,40 +2585,40 @@
         <v>30</v>
       </c>
       <c r="K7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
         <v>247</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>248</v>
       </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>197</v>
+      </c>
+      <c r="S7" t="s">
         <v>249</v>
       </c>
-      <c r="O7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>199</v>
-      </c>
-      <c r="S7" t="s">
-        <v>251</v>
-      </c>
       <c r="T7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="X7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Y7" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z7">
         <v>30</v>
@@ -2629,7 +2626,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E8">
         <v>2024</v>
@@ -2638,26 +2635,26 @@
         <v>45</v>
       </c>
       <c r="K8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8" t="s">
         <v>252</v>
       </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>253</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>254</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" t="s">
         <v>255</v>
       </c>
-      <c r="Q8" t="s">
-        <v>256</v>
-      </c>
-      <c r="S8" t="s">
-        <v>257</v>
-      </c>
       <c r="T8">
         <v>20</v>
       </c>
@@ -2665,10 +2662,10 @@
         <v>20</v>
       </c>
       <c r="X8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z8">
         <v>20</v>
@@ -2676,13 +2673,13 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>2025</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -2691,17 +2688,17 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
+        <v>256</v>
+      </c>
+      <c r="P9" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
         <v>258</v>
       </c>
-      <c r="P9" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>260</v>
-      </c>
       <c r="T9">
         <v>30</v>
       </c>
@@ -2709,10 +2706,10 @@
         <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z9">
         <v>30</v>
@@ -2720,34 +2717,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10">
         <v>2026</v>
       </c>
       <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" t="s">
         <v>261</v>
       </c>
-      <c r="N10">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="Q10">
+        <v>30</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="P10" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10">
-        <v>30</v>
-      </c>
-      <c r="S10" t="s">
-        <v>264</v>
-      </c>
       <c r="X10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z10">
         <v>45</v>
@@ -2767,19 +2764,19 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q11">
         <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z11">
         <v>20</v>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>2028</v>
@@ -2799,16 +2796,16 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z12">
         <v>30</v>
@@ -2816,7 +2813,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13">
         <v>2029</v>
@@ -2831,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z13">
         <v>45</v>
@@ -2845,7 +2842,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E14">
         <v>2030</v>
@@ -2854,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="X14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -2871,13 +2868,13 @@
         <v>2031</v>
       </c>
       <c r="S15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="X15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z15">
         <v>30</v>
@@ -2888,13 +2885,13 @@
         <v>2032</v>
       </c>
       <c r="S16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="X16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z16">
         <v>45</v>
@@ -2908,10 +2905,10 @@
         <v>20</v>
       </c>
       <c r="X17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z17">
         <v>20</v>
@@ -2925,10 +2922,10 @@
         <v>30</v>
       </c>
       <c r="X18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z18">
         <v>30</v>
@@ -2939,10 +2936,10 @@
         <v>2035</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z19">
         <v>45</v>
@@ -2956,7 +2953,7 @@
         <v>121</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z20">
         <v>20</v>
@@ -2970,7 +2967,7 @@
         <v>121</v>
       </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z21">
         <v>30</v>
@@ -2984,7 +2981,7 @@
         <v>121</v>
       </c>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z22">
         <v>75</v>
@@ -2998,7 +2995,7 @@
         <v>121</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z23">
         <v>20</v>
@@ -3012,7 +3009,7 @@
         <v>121</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z24">
         <v>30</v>
@@ -3026,7 +3023,7 @@
         <v>121</v>
       </c>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Z25">
         <v>75</v>
@@ -3040,7 +3037,7 @@
         <v>121</v>
       </c>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z26">
         <v>20</v>
@@ -3054,7 +3051,7 @@
         <v>121</v>
       </c>
       <c r="Y27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z27">
         <v>30</v>
@@ -3068,7 +3065,7 @@
         <v>121</v>
       </c>
       <c r="Y28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z28">
         <v>75</v>
@@ -3082,7 +3079,7 @@
         <v>121</v>
       </c>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z29">
         <v>20</v>
@@ -3096,7 +3093,7 @@
         <v>121</v>
       </c>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z30">
         <v>30</v>
@@ -3110,7 +3107,7 @@
         <v>121</v>
       </c>
       <c r="Y31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z31">
         <v>75</v>
@@ -3124,7 +3121,7 @@
         <v>121</v>
       </c>
       <c r="Y32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z32">
         <v>20</v>
@@ -3138,7 +3135,7 @@
         <v>121</v>
       </c>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z33">
         <v>30</v>
@@ -3152,7 +3149,7 @@
         <v>121</v>
       </c>
       <c r="Y34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z34">
         <v>75</v>
@@ -3163,7 +3160,7 @@
         <v>121</v>
       </c>
       <c r="Y35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z35">
         <v>20</v>
@@ -3174,7 +3171,7 @@
         <v>121</v>
       </c>
       <c r="Y36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z36">
         <v>30</v>
@@ -3185,7 +3182,7 @@
         <v>121</v>
       </c>
       <c r="Y37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z37">
         <v>75</v>
@@ -3196,7 +3193,7 @@
         <v>121</v>
       </c>
       <c r="Y38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z38">
         <v>20</v>
@@ -3207,7 +3204,7 @@
         <v>121</v>
       </c>
       <c r="Y39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z39">
         <v>30</v>
@@ -3218,7 +3215,7 @@
         <v>121</v>
       </c>
       <c r="Y40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z40">
         <v>75</v>
@@ -3229,7 +3226,7 @@
         <v>121</v>
       </c>
       <c r="Y41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z41">
         <v>20</v>
@@ -3240,7 +3237,7 @@
         <v>121</v>
       </c>
       <c r="Y42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z42">
         <v>30</v>
@@ -3251,7 +3248,7 @@
         <v>121</v>
       </c>
       <c r="Y43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z43">
         <v>75</v>
@@ -3262,7 +3259,7 @@
         <v>121</v>
       </c>
       <c r="Y44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z44">
         <v>20</v>
@@ -3273,7 +3270,7 @@
         <v>121</v>
       </c>
       <c r="Y45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z45">
         <v>30</v>
@@ -3284,7 +3281,7 @@
         <v>121</v>
       </c>
       <c r="Y46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Z46">
         <v>75</v>
@@ -3292,10 +3289,10 @@
     </row>
     <row r="47" spans="5:26">
       <c r="X47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z47">
         <v>20</v>
@@ -3303,10 +3300,10 @@
     </row>
     <row r="48" spans="5:26">
       <c r="X48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z48">
         <v>30</v>
@@ -3314,10 +3311,10 @@
     </row>
     <row r="49" spans="24:26">
       <c r="X49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y49" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z49">
         <v>20</v>
@@ -3325,10 +3322,10 @@
     </row>
     <row r="50" spans="24:26">
       <c r="X50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z50">
         <v>30</v>
@@ -3336,10 +3333,10 @@
     </row>
     <row r="51" spans="24:26">
       <c r="X51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z51">
         <v>20</v>
@@ -3347,10 +3344,10 @@
     </row>
     <row r="52" spans="24:26">
       <c r="X52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z52">
         <v>30</v>
@@ -3358,10 +3355,10 @@
     </row>
     <row r="53" spans="24:26">
       <c r="X53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z53">
         <v>20</v>
@@ -3369,10 +3366,10 @@
     </row>
     <row r="54" spans="24:26">
       <c r="X54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z54">
         <v>30</v>
@@ -3380,10 +3377,10 @@
     </row>
     <row r="55" spans="24:26">
       <c r="X55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z55">
         <v>20</v>
@@ -3391,10 +3388,10 @@
     </row>
     <row r="56" spans="24:26">
       <c r="X56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z56">
         <v>30</v>
@@ -3402,10 +3399,10 @@
     </row>
     <row r="57" spans="24:26">
       <c r="X57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z57">
         <v>20</v>
@@ -3413,10 +3410,10 @@
     </row>
     <row r="58" spans="24:26">
       <c r="X58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y58" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z58">
         <v>30</v>
@@ -3424,10 +3421,10 @@
     </row>
     <row r="59" spans="24:26">
       <c r="X59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y59" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z59">
         <v>20</v>
@@ -3435,10 +3432,10 @@
     </row>
     <row r="60" spans="24:26">
       <c r="X60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z60">
         <v>30</v>
@@ -3446,10 +3443,10 @@
     </row>
     <row r="61" spans="24:26">
       <c r="X61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z61">
         <v>20</v>
@@ -3457,10 +3454,10 @@
     </row>
     <row r="62" spans="24:26">
       <c r="X62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Z62">
         <v>30</v>
@@ -3468,10 +3465,10 @@
     </row>
     <row r="63" spans="24:26">
       <c r="X63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Z63">
         <v>20</v>
@@ -3479,10 +3476,10 @@
     </row>
     <row r="64" spans="24:26">
       <c r="X64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Z64">
         <v>30</v>
@@ -3490,10 +3487,10 @@
     </row>
     <row r="65" spans="24:26">
       <c r="X65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z65">
         <v>20</v>
@@ -3501,10 +3498,10 @@
     </row>
     <row r="66" spans="24:26">
       <c r="X66" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y66" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z66">
         <v>30</v>
@@ -3512,10 +3509,10 @@
     </row>
     <row r="67" spans="24:26">
       <c r="X67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y67" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z67">
         <v>20</v>
@@ -3523,10 +3520,10 @@
     </row>
     <row r="68" spans="24:26">
       <c r="X68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z68">
         <v>30</v>
@@ -3534,10 +3531,10 @@
     </row>
     <row r="69" spans="24:26">
       <c r="X69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z69">
         <v>20</v>
@@ -3545,10 +3542,10 @@
     </row>
     <row r="70" spans="24:26">
       <c r="X70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z70">
         <v>30</v>
@@ -3556,10 +3553,10 @@
     </row>
     <row r="71" spans="24:26">
       <c r="X71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z71">
         <v>20</v>
@@ -3567,10 +3564,10 @@
     </row>
     <row r="72" spans="24:26">
       <c r="X72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Z72">
         <v>30</v>
@@ -3578,10 +3575,10 @@
     </row>
     <row r="73" spans="24:26">
       <c r="X73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z73">
         <v>20</v>
@@ -3589,10 +3586,10 @@
     </row>
     <row r="74" spans="24:26">
       <c r="X74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z74">
         <v>30</v>
@@ -3600,10 +3597,10 @@
     </row>
     <row r="75" spans="24:26">
       <c r="X75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -3611,10 +3608,10 @@
     </row>
     <row r="76" spans="24:26">
       <c r="X76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y76" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Z76">
         <v>30</v>
@@ -3622,10 +3619,10 @@
     </row>
     <row r="77" spans="24:26">
       <c r="X77" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z77">
         <v>20</v>
@@ -3633,10 +3630,10 @@
     </row>
     <row r="78" spans="24:26">
       <c r="X78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z78">
         <v>30</v>
@@ -3644,10 +3641,10 @@
     </row>
     <row r="79" spans="24:26">
       <c r="X79" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z79">
         <v>20</v>
@@ -3655,10 +3652,10 @@
     </row>
     <row r="80" spans="24:26">
       <c r="X80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Z80">
         <v>30</v>
@@ -3666,10 +3663,10 @@
     </row>
     <row r="81" spans="24:26">
       <c r="X81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z81">
         <v>20</v>
@@ -3677,10 +3674,10 @@
     </row>
     <row r="82" spans="24:26">
       <c r="X82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z82">
         <v>30</v>
@@ -3688,10 +3685,10 @@
     </row>
     <row r="83" spans="24:26">
       <c r="X83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z83">
         <v>100</v>
@@ -3699,10 +3696,10 @@
     </row>
     <row r="84" spans="24:26">
       <c r="X84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z84">
         <v>20</v>
@@ -3710,10 +3707,10 @@
     </row>
     <row r="85" spans="24:26">
       <c r="X85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z85">
         <v>30</v>
@@ -3721,10 +3718,10 @@
     </row>
     <row r="86" spans="24:26">
       <c r="X86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Z86">
         <v>100</v>
@@ -3732,10 +3729,10 @@
     </row>
     <row r="87" spans="24:26">
       <c r="X87" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y87" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z87">
         <v>20</v>
@@ -3743,10 +3740,10 @@
     </row>
     <row r="88" spans="24:26">
       <c r="X88" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z88">
         <v>30</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="89" spans="24:26">
       <c r="X89" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z89">
         <v>100</v>
@@ -3765,10 +3762,10 @@
     </row>
     <row r="90" spans="24:26">
       <c r="X90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z90">
         <v>20</v>
@@ -3776,10 +3773,10 @@
     </row>
     <row r="91" spans="24:26">
       <c r="X91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y91" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z91">
         <v>30</v>
@@ -3787,10 +3784,10 @@
     </row>
     <row r="92" spans="24:26">
       <c r="X92" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y92" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z92">
         <v>100</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row r="93" spans="24:26">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z93">
         <v>20</v>
@@ -3809,10 +3806,10 @@
     </row>
     <row r="94" spans="24:26">
       <c r="X94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z94">
         <v>30</v>
@@ -3820,10 +3817,10 @@
     </row>
     <row r="95" spans="24:26">
       <c r="X95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z95">
         <v>100</v>
@@ -3831,10 +3828,10 @@
     </row>
     <row r="96" spans="24:26">
       <c r="X96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z96">
         <v>20</v>
@@ -3842,10 +3839,10 @@
     </row>
     <row r="97" spans="24:26">
       <c r="X97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z97">
         <v>30</v>
@@ -3853,10 +3850,10 @@
     </row>
     <row r="98" spans="24:26">
       <c r="X98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Z98">
         <v>100</v>
@@ -3864,10 +3861,10 @@
     </row>
     <row r="99" spans="24:26">
       <c r="X99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Z99">
         <v>20</v>
@@ -3875,10 +3872,10 @@
     </row>
     <row r="100" spans="24:26">
       <c r="X100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Z100">
         <v>30</v>
@@ -3886,10 +3883,10 @@
     </row>
     <row r="101" spans="24:26">
       <c r="X101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y101" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Z101">
         <v>100</v>
@@ -3897,10 +3894,10 @@
     </row>
     <row r="102" spans="24:26">
       <c r="X102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y102" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z102">
         <v>20</v>
@@ -3908,10 +3905,10 @@
     </row>
     <row r="103" spans="24:26">
       <c r="X103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y103" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z103">
         <v>30</v>
@@ -3919,10 +3916,10 @@
     </row>
     <row r="104" spans="24:26">
       <c r="X104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y104" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Z104">
         <v>100</v>
@@ -3930,10 +3927,10 @@
     </row>
     <row r="105" spans="24:26">
       <c r="X105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y105" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z105">
         <v>20</v>
@@ -3941,10 +3938,10 @@
     </row>
     <row r="106" spans="24:26">
       <c r="X106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y106" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z106">
         <v>30</v>
@@ -3952,10 +3949,10 @@
     </row>
     <row r="107" spans="24:26">
       <c r="X107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Y107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z107">
         <v>100</v>
@@ -3963,10 +3960,10 @@
     </row>
     <row r="108" spans="24:26">
       <c r="X108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z108">
         <v>20</v>
@@ -3974,10 +3971,10 @@
     </row>
     <row r="109" spans="24:26">
       <c r="X109" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y109" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z109">
         <v>30</v>
@@ -3985,10 +3982,10 @@
     </row>
     <row r="110" spans="24:26">
       <c r="X110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z110">
         <v>20</v>
@@ -3996,10 +3993,10 @@
     </row>
     <row r="111" spans="24:26">
       <c r="X111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z111">
         <v>30</v>
@@ -4007,10 +4004,10 @@
     </row>
     <row r="112" spans="24:26">
       <c r="X112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z112">
         <v>20</v>
@@ -4018,10 +4015,10 @@
     </row>
     <row r="113" spans="24:26">
       <c r="X113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z113">
         <v>30</v>
@@ -4029,10 +4026,10 @@
     </row>
     <row r="114" spans="24:26">
       <c r="X114" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z114">
         <v>20</v>
@@ -4040,10 +4037,10 @@
     </row>
     <row r="115" spans="24:26">
       <c r="X115" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Z115">
         <v>30</v>
@@ -4051,10 +4048,10 @@
     </row>
     <row r="116" spans="24:26">
       <c r="X116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Z116">
         <v>20</v>
@@ -4062,10 +4059,10 @@
     </row>
     <row r="117" spans="24:26">
       <c r="X117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y117" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Z117">
         <v>30</v>
@@ -4073,10 +4070,10 @@
     </row>
     <row r="118" spans="24:26">
       <c r="X118" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y118" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z118">
         <v>20</v>
@@ -4084,10 +4081,10 @@
     </row>
     <row r="119" spans="24:26">
       <c r="X119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z119">
         <v>30</v>
@@ -4095,10 +4092,10 @@
     </row>
     <row r="120" spans="24:26">
       <c r="X120" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y120" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z120">
         <v>20</v>
@@ -4106,10 +4103,10 @@
     </row>
     <row r="121" spans="24:26">
       <c r="X121" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y121" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Z121">
         <v>30</v>
@@ -4117,10 +4114,10 @@
     </row>
     <row r="122" spans="24:26">
       <c r="X122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y122" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z122">
         <v>20</v>
@@ -4128,10 +4125,10 @@
     </row>
     <row r="123" spans="24:26">
       <c r="X123" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y123" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Z123">
         <v>30</v>
@@ -4139,10 +4136,10 @@
     </row>
     <row r="124" spans="24:26">
       <c r="X124" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y124" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z124">
         <v>20</v>
@@ -4150,10 +4147,10 @@
     </row>
     <row r="125" spans="24:26">
       <c r="X125" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y125" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Z125">
         <v>30</v>
@@ -4161,10 +4158,10 @@
     </row>
     <row r="126" spans="24:26">
       <c r="X126" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y126" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z126">
         <v>20</v>
@@ -4172,10 +4169,10 @@
     </row>
     <row r="127" spans="24:26">
       <c r="X127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y127" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z127">
         <v>30</v>
@@ -4183,10 +4180,10 @@
     </row>
     <row r="128" spans="24:26">
       <c r="X128" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y128" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z128">
         <v>20</v>
@@ -4194,10 +4191,10 @@
     </row>
     <row r="129" spans="24:26">
       <c r="X129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Y129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Z129">
         <v>30</v>
@@ -4205,10 +4202,10 @@
     </row>
     <row r="130" spans="24:26">
       <c r="X130" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y130" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z130">
         <v>20</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="131" spans="24:26">
       <c r="X131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z131">
         <v>30</v>
@@ -4227,10 +4224,10 @@
     </row>
     <row r="132" spans="24:26">
       <c r="X132" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y132" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z132">
         <v>55</v>
@@ -4238,10 +4235,10 @@
     </row>
     <row r="133" spans="24:26">
       <c r="X133" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y133" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z133">
         <v>20</v>
@@ -4249,10 +4246,10 @@
     </row>
     <row r="134" spans="24:26">
       <c r="X134" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y134" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z134">
         <v>30</v>
@@ -4260,10 +4257,10 @@
     </row>
     <row r="135" spans="24:26">
       <c r="X135" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y135" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z135">
         <v>55</v>
@@ -4271,10 +4268,10 @@
     </row>
     <row r="136" spans="24:26">
       <c r="X136" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z136">
         <v>20</v>
@@ -4282,10 +4279,10 @@
     </row>
     <row r="137" spans="24:26">
       <c r="X137" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y137" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z137">
         <v>30</v>
@@ -4293,10 +4290,10 @@
     </row>
     <row r="138" spans="24:26">
       <c r="X138" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y138" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z138">
         <v>55</v>
@@ -4304,10 +4301,10 @@
     </row>
     <row r="139" spans="24:26">
       <c r="X139" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y139" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z139">
         <v>20</v>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="140" spans="24:26">
       <c r="X140" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y140" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z140">
         <v>30</v>
@@ -4326,10 +4323,10 @@
     </row>
     <row r="141" spans="24:26">
       <c r="X141" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z141">
         <v>55</v>
@@ -4337,10 +4334,10 @@
     </row>
     <row r="142" spans="24:26">
       <c r="X142" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y142" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z142">
         <v>20</v>
@@ -4348,10 +4345,10 @@
     </row>
     <row r="143" spans="24:26">
       <c r="X143" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y143" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z143">
         <v>30</v>
@@ -4359,10 +4356,10 @@
     </row>
     <row r="144" spans="24:26">
       <c r="X144" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y144" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Z144">
         <v>55</v>
@@ -4370,10 +4367,10 @@
     </row>
     <row r="145" spans="24:26">
       <c r="X145" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y145" t="s">
         <v>197</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>199</v>
       </c>
       <c r="Z145">
         <v>20</v>
@@ -4381,10 +4378,10 @@
     </row>
     <row r="146" spans="24:26">
       <c r="X146" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y146" t="s">
         <v>197</v>
-      </c>
-      <c r="Y146" t="s">
-        <v>199</v>
       </c>
       <c r="Z146">
         <v>30</v>
@@ -4392,10 +4389,10 @@
     </row>
     <row r="147" spans="24:26">
       <c r="X147" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y147" t="s">
         <v>197</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>199</v>
       </c>
       <c r="Z147">
         <v>55</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="148" spans="24:26">
       <c r="X148" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y148" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z148">
         <v>20</v>
@@ -4414,10 +4411,10 @@
     </row>
     <row r="149" spans="24:26">
       <c r="X149" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y149" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z149">
         <v>30</v>
@@ -4425,10 +4422,10 @@
     </row>
     <row r="150" spans="24:26">
       <c r="X150" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y150" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z150">
         <v>55</v>
@@ -4439,7 +4436,7 @@
         <v>120</v>
       </c>
       <c r="Y151" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z151">
         <v>20</v>
@@ -4450,7 +4447,7 @@
         <v>120</v>
       </c>
       <c r="Y152" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z152">
         <v>30</v>
@@ -4461,7 +4458,7 @@
         <v>120</v>
       </c>
       <c r="Y153" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z153">
         <v>60</v>
@@ -4472,7 +4469,7 @@
         <v>120</v>
       </c>
       <c r="Y154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z154">
         <v>20</v>
@@ -4483,7 +4480,7 @@
         <v>120</v>
       </c>
       <c r="Y155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z155">
         <v>30</v>
@@ -4494,7 +4491,7 @@
         <v>120</v>
       </c>
       <c r="Y156" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z156">
         <v>60</v>
@@ -4505,7 +4502,7 @@
         <v>120</v>
       </c>
       <c r="Y157" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z157">
         <v>20</v>
@@ -4516,7 +4513,7 @@
         <v>120</v>
       </c>
       <c r="Y158" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z158">
         <v>30</v>
@@ -4527,7 +4524,7 @@
         <v>120</v>
       </c>
       <c r="Y159" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z159">
         <v>60</v>
@@ -4535,10 +4532,10 @@
     </row>
     <row r="160" spans="24:26">
       <c r="X160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y160" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z160">
         <v>20</v>
@@ -4546,10 +4543,10 @@
     </row>
     <row r="161" spans="24:26">
       <c r="X161" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z161">
         <v>30</v>
@@ -4557,10 +4554,10 @@
     </row>
     <row r="162" spans="24:26">
       <c r="X162" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y162" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z162">
         <v>20</v>
@@ -4568,10 +4565,10 @@
     </row>
     <row r="163" spans="24:26">
       <c r="X163" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z163">
         <v>30</v>
@@ -4579,10 +4576,10 @@
     </row>
     <row r="164" spans="24:26">
       <c r="X164" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z164">
         <v>20</v>
@@ -4590,10 +4587,10 @@
     </row>
     <row r="165" spans="24:26">
       <c r="X165" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Z165">
         <v>30</v>
@@ -4601,10 +4598,10 @@
     </row>
     <row r="166" spans="24:26">
       <c r="X166" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y166" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z166">
         <v>20</v>
@@ -4612,10 +4609,10 @@
     </row>
     <row r="167" spans="24:26">
       <c r="X167" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y167" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z167">
         <v>30</v>
@@ -4623,10 +4620,10 @@
     </row>
     <row r="168" spans="24:26">
       <c r="X168" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y168" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z168">
         <v>20</v>
@@ -4634,10 +4631,10 @@
     </row>
     <row r="169" spans="24:26">
       <c r="X169" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y169" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Z169">
         <v>30</v>
@@ -4645,10 +4642,10 @@
     </row>
     <row r="170" spans="24:26">
       <c r="X170" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y170" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z170">
         <v>20</v>
@@ -4656,10 +4653,10 @@
     </row>
     <row r="171" spans="24:26">
       <c r="X171" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y171" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z171">
         <v>30</v>
@@ -4667,10 +4664,10 @@
     </row>
     <row r="172" spans="24:26">
       <c r="X172" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y172" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z172">
         <v>20</v>
@@ -4678,10 +4675,10 @@
     </row>
     <row r="173" spans="24:26">
       <c r="X173" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y173" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Z173">
         <v>30</v>
@@ -4689,10 +4686,10 @@
     </row>
     <row r="174" spans="24:26">
       <c r="X174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y174" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z174">
         <v>20</v>
@@ -4700,10 +4697,10 @@
     </row>
     <row r="175" spans="24:26">
       <c r="X175" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y175" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Z175">
         <v>30</v>
@@ -4711,10 +4708,10 @@
     </row>
     <row r="176" spans="24:26">
       <c r="X176" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y176" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z176">
         <v>20</v>
@@ -4722,10 +4719,10 @@
     </row>
     <row r="177" spans="24:26">
       <c r="X177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y177" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z177">
         <v>30</v>
@@ -4733,10 +4730,10 @@
     </row>
     <row r="178" spans="24:26">
       <c r="X178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y178" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z178">
         <v>20</v>
@@ -4744,10 +4741,10 @@
     </row>
     <row r="179" spans="24:26">
       <c r="X179" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y179" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z179">
         <v>30</v>
@@ -4755,10 +4752,10 @@
     </row>
     <row r="180" spans="24:26">
       <c r="X180" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y180" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z180">
         <v>20</v>
@@ -4766,10 +4763,10 @@
     </row>
     <row r="181" spans="24:26">
       <c r="X181" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y181" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z181">
         <v>30</v>
@@ -4777,10 +4774,10 @@
     </row>
     <row r="182" spans="24:26">
       <c r="X182" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y182" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z182">
         <v>20</v>
@@ -4788,10 +4785,10 @@
     </row>
     <row r="183" spans="24:26">
       <c r="X183" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y183" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Z183">
         <v>30</v>
@@ -4799,10 +4796,10 @@
     </row>
     <row r="184" spans="24:26">
       <c r="X184" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y184" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z184">
         <v>20</v>
@@ -4810,10 +4807,10 @@
     </row>
     <row r="185" spans="24:26">
       <c r="X185" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y185" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z185">
         <v>30</v>
@@ -4821,10 +4818,10 @@
     </row>
     <row r="186" spans="24:26">
       <c r="X186" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y186" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z186">
         <v>20</v>
@@ -4832,10 +4829,10 @@
     </row>
     <row r="187" spans="24:26">
       <c r="X187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y187" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z187">
         <v>30</v>
@@ -4843,10 +4840,10 @@
     </row>
     <row r="188" spans="24:26">
       <c r="X188" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y188" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z188">
         <v>20</v>
@@ -4854,10 +4851,10 @@
     </row>
     <row r="189" spans="24:26">
       <c r="X189" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y189" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Z189">
         <v>30</v>
@@ -4865,10 +4862,10 @@
     </row>
     <row r="190" spans="24:26">
       <c r="X190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y190" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z190">
         <v>20</v>
@@ -4876,10 +4873,10 @@
     </row>
     <row r="191" spans="24:26">
       <c r="X191" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z191">
         <v>30</v>
@@ -4887,10 +4884,10 @@
     </row>
     <row r="192" spans="24:26">
       <c r="X192" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y192" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z192">
         <v>20</v>
@@ -4898,10 +4895,10 @@
     </row>
     <row r="193" spans="24:26">
       <c r="X193" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y193" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z193">
         <v>30</v>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="194" spans="24:26">
       <c r="X194" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y194" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z194">
         <v>20</v>
@@ -4920,10 +4917,10 @@
     </row>
     <row r="195" spans="24:26">
       <c r="X195" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y195" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z195">
         <v>30</v>
@@ -4931,10 +4928,10 @@
     </row>
     <row r="196" spans="24:26">
       <c r="X196" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y196" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z196">
         <v>20</v>
@@ -4942,10 +4939,10 @@
     </row>
     <row r="197" spans="24:26">
       <c r="X197" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y197" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z197">
         <v>30</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="198" spans="24:26">
       <c r="X198" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z198">
         <v>20</v>
@@ -4964,10 +4961,10 @@
     </row>
     <row r="199" spans="24:26">
       <c r="X199" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y199" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z199">
         <v>30</v>
@@ -4975,10 +4972,10 @@
     </row>
     <row r="200" spans="24:26">
       <c r="X200" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y200" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z200">
         <v>20</v>
@@ -4986,10 +4983,10 @@
     </row>
     <row r="201" spans="24:26">
       <c r="X201" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Y201" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z201">
         <v>30</v>
@@ -4997,10 +4994,10 @@
     </row>
     <row r="202" spans="24:26">
       <c r="X202" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y202" t="s">
         <v>192</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>194</v>
       </c>
       <c r="Z202">
         <v>20</v>
@@ -5008,10 +5005,10 @@
     </row>
     <row r="203" spans="24:26">
       <c r="X203" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y203" t="s">
         <v>192</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>194</v>
       </c>
       <c r="Z203">
         <v>30</v>
@@ -5019,10 +5016,10 @@
     </row>
     <row r="204" spans="24:26">
       <c r="X204" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y204" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z204">
         <v>20</v>
@@ -5030,10 +5027,10 @@
     </row>
     <row r="205" spans="24:26">
       <c r="X205" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y205" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Z205">
         <v>30</v>
@@ -5041,10 +5038,10 @@
     </row>
     <row r="206" spans="24:26">
       <c r="X206" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y206" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z206">
         <v>20</v>
@@ -5052,10 +5049,10 @@
     </row>
     <row r="207" spans="24:26">
       <c r="X207" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y207" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z207">
         <v>30</v>
@@ -5063,10 +5060,10 @@
     </row>
     <row r="208" spans="24:26">
       <c r="X208" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y208" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z208">
         <v>20</v>
@@ -5074,10 +5071,10 @@
     </row>
     <row r="209" spans="24:26">
       <c r="X209" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y209" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z209">
         <v>30</v>
@@ -5085,10 +5082,10 @@
     </row>
     <row r="210" spans="24:26">
       <c r="X210" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y210" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z210">
         <v>20</v>
@@ -5096,10 +5093,10 @@
     </row>
     <row r="211" spans="24:26">
       <c r="X211" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y211" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z211">
         <v>30</v>
@@ -5107,10 +5104,10 @@
     </row>
     <row r="212" spans="24:26">
       <c r="X212" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y212" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z212">
         <v>20</v>
@@ -5118,10 +5115,10 @@
     </row>
     <row r="213" spans="24:26">
       <c r="X213" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y213" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z213">
         <v>30</v>
@@ -5282,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5293,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5398,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>31</v>
@@ -5511,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5522,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5554,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5644,7 +5641,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>80</v>
@@ -5719,7 +5716,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5735,7 +5732,7 @@
   <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5784,10 +5781,10 @@
         <v>90</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>91</v>
@@ -5820,7 +5817,7 @@
         <v>100</v>
       </c>
       <c r="V1" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W1" s="23" t="s">
         <v>101</v>
@@ -5859,7 +5856,7 @@
         <v>111</v>
       </c>
       <c r="AI1" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AJ1" s="23"/>
     </row>
@@ -5983,7 +5980,7 @@
         <v>118</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>119</v>
@@ -6092,10 +6089,10 @@
         <v>124</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="F4" s="18">
         <v>200</v>
@@ -6192,19 +6189,19 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="D5" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="18">
         <v>50</v>
@@ -6301,16 +6298,16 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>120</v>
@@ -6408,7 +6405,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH2">
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6423,7 +6420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6438,7 +6435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AI3">
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -6453,7 +6450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH6">
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -6468,7 +6465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI6">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -6483,7 +6480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AF6">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6529,136 +6526,136 @@
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -6676,8 +6673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6699,7 +6696,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.65" customHeight="1" thickBot="1">
       <c r="A1" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>81</v>
@@ -6717,25 +6714,25 @@
         <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6758,19 +6755,19 @@
         <v>115</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J2" s="31">
         <v>30</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L2" s="31">
         <v>2025</v>
@@ -6793,25 +6790,25 @@
         <v>118</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>119</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H3" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="31">
+        <v>30</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" s="31">
-        <v>30</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>195</v>
       </c>
       <c r="L3" s="31">
         <v>2025</v>
@@ -6834,25 +6831,25 @@
         <v>124</v>
       </c>
       <c r="E4" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>126</v>
-      </c>
       <c r="G4" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J4" s="31">
         <v>30</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L4" s="31">
         <v>2025</v>
@@ -6866,34 +6863,34 @@
         <v>80</v>
       </c>
       <c r="B5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>129</v>
-      </c>
       <c r="E5" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>199</v>
-      </c>
       <c r="I5" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J5" s="31">
         <v>30</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L5" s="31">
         <v>2025</v>
@@ -6907,16 +6904,16 @@
         <v>80</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>120</v>
@@ -6925,16 +6922,16 @@
         <v>120</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J6" s="31">
         <v>30</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L6" s="31">
         <v>2025</v>
@@ -6987,134 +6984,134 @@
     </row>
     <row r="2" spans="1:3" ht="14.65" customHeight="1" thickTop="1">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="13">
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665FAFF-B628-41A0-830A-96BBE2BE67FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D3E7C-CEC4-492F-B856-75DA2377D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_GEP Setting" sheetId="1" r:id="rId1"/>
@@ -5731,8 +5731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="19">
-        <v>5.6829999999999998</v>
+        <v>5683</v>
       </c>
       <c r="N5" s="19">
         <v>4.5</v>
@@ -6673,7 +6673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
+++ b/inputs/ALEAF_inputs/ALEAF_Master_LC_GEP_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ALEAF_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D3E7C-CEC4-492F-B856-75DA2377D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D494AD9-2953-436C-9C91-F6BEBE275EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_GEP Setting" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="288">
   <si>
     <t>Setting</t>
   </si>
@@ -927,6 +927,12 @@
   </si>
   <si>
     <t>AdvancedNuclear</t>
+  </si>
+  <si>
+    <t>PTC_Nuc</t>
+  </si>
+  <si>
+    <t>ITC_Nuc</t>
   </si>
 </sst>
 </file>
@@ -5549,10 +5555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5564,7 +5570,7 @@
     <col min="27" max="27" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="24" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" s="24" customFormat="1" ht="28.9" customHeight="1" thickBot="1">
       <c r="A1" s="32" t="s">
         <v>58</v>
       </c>
@@ -5637,9 +5643,14 @@
       <c r="X1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="32"/>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Y1" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>284</v>
       </c>
@@ -5712,7 +5723,12 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
@@ -5731,7 +5747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
